--- a/DOWNLOADS/EDITAIS/U_988881_E_900542025/U_988881_E_900542025_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_988881_E_900542025/U_988881_E_900542025_master.xlsx
@@ -67,19 +67,19 @@
     <t>Peças e acessórios instrumento musical Peças E Acessórios Instrumento Musical Tipo: Baqueta, Aplicação: Gongo Sinfônico</t>
   </si>
   <si>
-    <t>PELE HIDRÁULICA de 14 polegadas com perfil de alumínio.</t>
-  </si>
-  <si>
-    <t>PELE HIDRÁULICA de 22 polegadas com perfil de alumínio.</t>
-  </si>
-  <si>
-    <t>BAQUETA de tarol em madeira, cor natural, ponta de madeira marfim, tamanho 41cm.</t>
-  </si>
-  <si>
-    <t>BAQUETA de surdo em madeira, cor natural, ponta de madeira, tamanho 30,5, peso 100g.</t>
-  </si>
-  <si>
-    <t>BAQUETA para bumbo, cabo em madeira, ponta em borracha, cor natural, comprimento total 24,5cm, comprimento do cabo de 19cm.</t>
+    <t>PELE HIDRÁULICA DE 14” POLEGADAS COM PERFIL DE ALUMINIO.</t>
+  </si>
+  <si>
+    <t>PELE HIDRÁULICA DE 22” POLEGADAS COM PERFIL DE ALUMINIO.</t>
+  </si>
+  <si>
+    <t>BAQUETA DE TAROL EM MADEIRA, COR NATURAL, PONTA DE MADEIRA MARFIM, TAMANHO 41CM.</t>
+  </si>
+  <si>
+    <t>BAQUETA DE SURDO EM MADEIRA, COR NATURAL, PONTA DE MADEIRA, TAMANHO 30,5, PESO 100G.</t>
+  </si>
+  <si>
+    <t>BAQUETA PARA BUMBO, CABO EM MADEIRA, PONTA EM BORRACHA, COR NATURAL, COMPRIMENTO</t>
   </si>
   <si>
     <t>Unidade</t>
